--- a/Mappings/SNAQrcScore - STU3.xlsx
+++ b/Mappings/SNAQrcScore - STU3.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="SNAQrcAppetiteScoreCodelist" sheetId="5" r:id="rId5"/>
-    <sheet name="SNAQrcAssistedEatingCodelist" sheetId="6" r:id="rId6"/>
-    <sheet name="SNAQrcBMIScoreCodelist" sheetId="7" r:id="rId7"/>
-    <sheet name="SNAQrcWeightLossScoreCodelist" sheetId="8" r:id="rId8"/>
-    <sheet name="Terms of Use" sheetId="9" r:id="rId9"/>
+    <sheet name="Research" sheetId="10" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="SNAQrcAppetiteScoreCodelist" sheetId="5" r:id="rId6"/>
+    <sheet name="SNAQrcAssistedEatingCodelist" sheetId="6" r:id="rId7"/>
+    <sheet name="SNAQrcBMIScoreCodelist" sheetId="7" r:id="rId8"/>
+    <sheet name="SNAQrcWeightLossScoreCodelist" sheetId="8" r:id="rId9"/>
+    <sheet name="Terms of Use" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="199">
   <si>
     <t>Subject</t>
   </si>
@@ -541,9 +542,6 @@
     <t>Maps to</t>
   </si>
   <si>
-    <t>Observation</t>
-  </si>
-  <si>
     <t>Observation.valueQuantity</t>
   </si>
   <si>
@@ -553,33 +551,93 @@
     <t>Observation.comment</t>
   </si>
   <si>
-    <t>Waardebereik: 0-5
+    <t>comments</t>
+  </si>
+  <si>
+    <t>If one of the component Scores is present, other scores (other than TotalScore) are required)</t>
+  </si>
+  <si>
+    <t>.component.weightLossScore.valueCodeableconcept</t>
+  </si>
+  <si>
+    <t>.component.AppetiteScorevalueCodeableconcept</t>
+  </si>
+  <si>
+    <t>.component.BMIScore.valueCodeableconcept</t>
+  </si>
+  <si>
+    <t>.component.assistedEating.valueCodeableconcept</t>
+  </si>
+  <si>
+    <t>nl-core-observation</t>
+  </si>
+  <si>
+    <t>Equivalence</t>
+  </si>
+  <si>
+    <t>Valueset Mapping</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>No SNOMED code available. Check BITS issue ZIB-287 for progress</t>
+  </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>SNAQrcScore, SNAQrc, Malnutrion</t>
+  </si>
+  <si>
+    <t>no relevant</t>
+  </si>
+  <si>
+    <t>ValueRange: 0-5
 If  component scores are not present, then Total score is Required.</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>If one of the component Scores is present, other scores (other than TotalScore) are required)</t>
-  </si>
-  <si>
-    <t>.component.weightLossScore.valueCodeableconcept</t>
-  </si>
-  <si>
-    <t>.component.AppetiteScorevalueCodeableconcept</t>
-  </si>
-  <si>
-    <t>.component.BMIScore.valueCodeableconcept</t>
-  </si>
-  <si>
-    <t>.component.assistedEating.valueCodeableconcept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -616,8 +674,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +707,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -701,10 +776,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -758,8 +834,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,6 +857,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -879,6 +1098,1319 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10241" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10241"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10242" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10242"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10243" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10243"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10244" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10244"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10245" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10245"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10246" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10246"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10247" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10247"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10248" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10248"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10249" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10249"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10250" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10250"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10251" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10251"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10252" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10252"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10253" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10253"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10254" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10254"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10255" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10255"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10256" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10256"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10257" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10257"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10258" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10258"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10259" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10259"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10260" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10260"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10261" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10261"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10262" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10262"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10263" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10263"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10264" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10264"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10265" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10265"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10266" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10266"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10267" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10267"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10268" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10268"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10269" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10269"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10270" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10270"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10271" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10271"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10272" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10272"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="704850" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10273" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10273"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1303,6 +2835,52 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="150" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="140.25">
+      <c r="B3" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="25.5">
+      <c r="B5" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="38.25">
+      <c r="B7" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
@@ -1316,10 +2894,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -1526,11 +3104,848 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10241" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10242" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10243" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10244" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10245" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10246" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10247" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10248" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10249" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10250" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10251" r:id="rId13" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10252" r:id="rId14" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10253" r:id="rId15" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10254" r:id="rId16" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10255" r:id="rId17" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10256" r:id="rId18" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10257" r:id="rId19" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10258" r:id="rId20" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10259" r:id="rId21" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10260" r:id="rId22" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10261" r:id="rId23" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10262" r:id="rId24" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10263" r:id="rId25" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10264" r:id="rId26" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10265" r:id="rId27" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10266" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10267" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10268" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10269" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10270" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10271" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10272" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="10273" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>142875</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R10"/>
+  <dimension ref="B2:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1545,11 +3960,13 @@
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="30" customWidth="1"/>
     <col min="16" max="16" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="17" max="17" width="42.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
@@ -1585,14 +4002,20 @@
       <c r="P2" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="25.5">
+    <row r="3" spans="2:20" ht="25.5">
       <c r="B3" s="8" t="s">
         <v>70</v>
       </c>
@@ -1618,12 +4041,16 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18" ht="63.75">
+      <c r="S3" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" ht="63.75">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>75</v>
@@ -1655,14 +4082,20 @@
         <v>82</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18">
+        <v>174</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="17"/>
+      <c r="T4" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>83</v>
@@ -1694,12 +4127,18 @@
         <v>87</v>
       </c>
       <c r="P5" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18" ht="25.5">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>88</v>
@@ -1731,12 +4170,18 @@
         <v>92</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18">
+        <v>176</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>93</v>
@@ -1768,12 +4213,18 @@
         <v>97</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18" ht="76.5">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" ht="76.5">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>98</v>
@@ -1803,14 +4254,18 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18">
+        <v>169</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>103</v>
@@ -1840,12 +4295,16 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" ht="25.5">
+        <v>170</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" ht="25.5">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>109</v>
@@ -1877,10 +4336,14 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1892,105 +4355,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J3:J9" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="25.5">
-      <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="25.5">
-      <c r="C6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D5:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2011,16 +4375,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
@@ -2042,44 +4406,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" ht="25.5">
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="25.5">
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +4460,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:H7"/>
+  <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2110,16 +4474,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
@@ -2141,64 +4505,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="25.5">
+    <row r="5" spans="3:8">
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="25.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="25.5">
-      <c r="C7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2208,7 +4552,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="D5:E7" numberStoredAsText="1"/>
+    <ignoredError sqref="D5:E6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2229,16 +4573,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
@@ -2262,62 +4606,62 @@
     </row>
     <row r="5" spans="3:8" ht="25.5">
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="3:8" ht="25.5">
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="3:8" ht="25.5">
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2334,47 +4678,120 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
+  <dimension ref="C3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="150" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" ht="140.25">
-      <c r="B3" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="25.5">
-      <c r="B5" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="38.25">
-      <c r="B7" s="2" t="s">
-        <v>167</v>
+    <row r="3" spans="3:8">
+      <c r="C3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="25.5">
+      <c r="C5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="25.5">
+      <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="25.5">
+      <c r="C7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D5:E7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2385,6 +4802,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -2575,15 +5001,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A085C5A-8D46-4F49-A1C0-7FFFB7B2FF2F}">
   <ds:schemaRefs>
@@ -2594,6 +5011,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB40532-6737-4C8C-98C9-A809AE49ECBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F455734-EA0D-4AC7-8E8E-916D10B9E7A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2610,12 +5035,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DB40532-6737-4C8C-98C9-A809AE49ECBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>